--- a/testscenarios CLI game.xlsx
+++ b/testscenarios CLI game.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10112"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10119"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/onnotimmermans/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DAAB98F-8095-1849-A301-B6E167B29918}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC4AFFFA-2E32-4943-9842-6B688212A713}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="21600" xr2:uid="{8532755F-8EB1-8641-98C9-3234D8AAA5BC}"/>
+    <workbookView xWindow="4340" yWindow="500" windowWidth="24460" windowHeight="17500" xr2:uid="{8532755F-8EB1-8641-98C9-3234D8AAA5BC}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -229,24 +229,6 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="5">
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color auto="1"/>
-        <name val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -319,6 +301,24 @@
         <scheme val="minor"/>
       </font>
     </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -337,22 +337,22 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>406400</xdr:colOff>
+      <xdr:colOff>774700</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>25400</xdr:rowOff>
+      <xdr:rowOff>50800</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>448074</xdr:colOff>
-      <xdr:row>50</xdr:row>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>45</xdr:row>
       <xdr:rowOff>127000</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Picture 2">
+        <xdr:cNvPr id="4" name="Picture 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{58CBA701-80B6-E45A-EE16-00C55B56B839}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A2A5F29A-C443-0D84-6367-18048BBB1651}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -374,8 +374,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="406400" y="228600"/>
-          <a:ext cx="4169174" cy="10058400"/>
+          <a:off x="774700" y="254000"/>
+          <a:ext cx="3733800" cy="9017000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -388,12 +388,12 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{7A407BD2-FC9F-0C42-8877-DA3A5F9D3F18}" name="Table1" displayName="Table1" ref="G2:I33" totalsRowShown="0" headerRowDxfId="0" dataDxfId="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{7A407BD2-FC9F-0C42-8877-DA3A5F9D3F18}" name="Table1" displayName="Table1" ref="G2:I33" totalsRowShown="0" headerRowDxfId="4" dataDxfId="3">
   <autoFilter ref="G2:I33" xr:uid="{7A407BD2-FC9F-0C42-8877-DA3A5F9D3F18}"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{E5775D1B-D48A-3442-B000-E8900F61FB21}" name="Stap" dataDxfId="4"/>
-    <tableColumn id="2" xr3:uid="{09C23DE7-1DA9-D749-829D-99FDBA6016EE}" name="Scenario" dataDxfId="3"/>
-    <tableColumn id="3" xr3:uid="{BBACB266-5A88-8140-BCF9-073D294B44BA}" name="Uitkomst" dataDxfId="2"/>
+    <tableColumn id="1" xr3:uid="{E5775D1B-D48A-3442-B000-E8900F61FB21}" name="Stap" dataDxfId="2"/>
+    <tableColumn id="2" xr3:uid="{09C23DE7-1DA9-D749-829D-99FDBA6016EE}" name="Scenario" dataDxfId="1"/>
+    <tableColumn id="3" xr3:uid="{BBACB266-5A88-8140-BCF9-073D294B44BA}" name="Uitkomst" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
